--- a/internals/tests/test_cases/01.Simple_examples.xlsx
+++ b/internals/tests/test_cases/01.Simple_examples.xlsx
@@ -13,6 +13,8 @@
     <sheet name="SkipRows" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="TableRange" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Sheet2" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="employees" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="countries" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="242">
   <si>
     <t xml:space="preserve">Col1</t>
   </si>
@@ -65,6 +67,33 @@
     <t xml:space="preserve">qwe_null</t>
   </si>
   <si>
+    <t xml:space="preserve">qwe5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qwe6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qwe7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qwe8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qwe9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qwe10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qwe11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qwe12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qwe13</t>
+  </si>
+  <si>
     <t xml:space="preserve">Col4</t>
   </si>
   <si>
@@ -81,6 +110,648 @@
   </si>
   <si>
     <t xml:space="preserve">Petr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">employee_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">first_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phone_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hire_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">job_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">salary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manager_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">department_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steven.king@sqltutorial.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">515.123.4567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kochhar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neena.kochhar@sqltutorial.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">515.123.4568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De Haan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lex.de haan@sqltutorial.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">515.123.4569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hunold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alexander.hunold@sqltutorial.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">590.423.4567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bruce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ernst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bruce.ernst@sqltutorial.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">590.423.4568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">david.austin@sqltutorial.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">590.423.4569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pataballa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valli.pataballa@sqltutorial.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">590.423.4560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorentz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diana.lorentz@sqltutorial.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">590.423.5567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nancy.greenberg@sqltutorial.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">515.124.4569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faviet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">daniel.faviet@sqltutorial.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">515.124.4169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">john.chen@sqltutorial.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">515.124.4269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ismael</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sciarra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ismael.sciarra@sqltutorial.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">515.124.4369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose Manuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jose manuel.urman@sqltutorial.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">515.124.4469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Popp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">luis.popp@sqltutorial.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">515.124.4567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Den</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raphaely</t>
+  </si>
+  <si>
+    <t xml:space="preserve">den.raphaely@sqltutorial.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">515.127.4561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khoo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alexander.khoo@sqltutorial.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">515.127.4562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shelli.baida@sqltutorial.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">515.127.4563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sigal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tobias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sigal.tobias@sqltutorial.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">515.127.4564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Himuro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guy.himuro@sqltutorial.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">515.127.4565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colmenares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">karen.colmenares@sqltutorial.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">515.127.4566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matthew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weiss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matthew.weiss@sqltutorial.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">650.123.1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fripp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adam.fripp@sqltutorial.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">650.123.2234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaufling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">payam.kaufling@sqltutorial.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">650.123.3234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shanta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vollman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shanta.vollman@sqltutorial.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">650.123.4234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mikkilineni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">irene.mikkilineni@sqltutorial.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">650.124.1224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">john.russell@sqltutorial.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">karen.partners@sqltutorial.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonathon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taylor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jonathon.taylor@sqltutorial.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Livingston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jack.livingston@sqltutorial.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kimberely</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kimberely.grant@sqltutorial.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">charles.johnson@sqltutorial.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sarah.bell@sqltutorial.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">650.501.1876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Britney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everett</t>
+  </si>
+  <si>
+    <t xml:space="preserve">britney.everett@sqltutorial.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">650.501.2876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jennifer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whalen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jennifer.whalen@sqltutorial.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">515.123.4444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hartstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">michael.hartstein@sqltutorial.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">515.123.5555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pat.fay@sqltutorial.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">603.123.6666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Susan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mavris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">susan.mavris@sqltutorial.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">515.123.7777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hermann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hermann.baer@sqltutorial.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">515.123.8888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Higgins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shelley.higgins@sqltutorial.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">515.123.8080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">William</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gietz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">william.gietz@sqltutorial.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">515.123.8181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">country_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">country_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">region_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egypt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HongKong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuwait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singapore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States of America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zimbabwe</t>
   </si>
 </sst>
 </file>
@@ -222,7 +893,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:C5 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -293,7 +964,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="A5:C5 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -387,22 +1058,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A5:C8"/>
+  <dimension ref="A5:C18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -437,6 +1108,116 @@
       </c>
       <c r="C8" s="3" t="n">
         <v>45270</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>45272</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>45274</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>45275</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>45276</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>45277</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>45278</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>45279</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>45280</v>
       </c>
     </row>
   </sheetData>
@@ -458,7 +1239,7 @@
   <dimension ref="C4:F8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="1" sqref="A5:C5 E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -474,7 +1255,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -552,20 +1333,20 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -573,7 +1354,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1</v>
@@ -584,7 +1365,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>5</v>
@@ -595,10 +1376,1640 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J41"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:C5 A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>31945</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>24000</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>32772</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>17000</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>33982</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>17000</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>32876</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>9000</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>33379</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>6000</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>35606</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>4800</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>35831</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>4800</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>36198</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>4200</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>34563</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>12000</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>34562</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>9000</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>35701</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>8200</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>35703</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>7700</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>35861</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>7800</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>36501</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>6900</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>34675</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>11000</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>34837</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>3100</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>35788</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>2900</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>35635</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>2800</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>36114</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>2600</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>36382</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>2500</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>35264</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>8000</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>35530</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>8200</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="J23" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>34820</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>7900</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="J24" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>35713</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>6500</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>36066</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>2700</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>35339</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>14000</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>35435</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>13500</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>35878</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>8600</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>35908</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>8400</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>36304</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>7000</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>36529</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>6200</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>35099</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>4000</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="J33" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F34" s="3" t="n">
+        <v>35492</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>3900</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="J34" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>32037</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>4400</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="J35" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>35112</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>13000</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="J36" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>35659</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>6000</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="J37" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F38" s="3" t="n">
+        <v>34492</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>6500</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="J38" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F39" s="3" t="n">
+        <v>34492</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="J39" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F40" s="3" t="n">
+        <v>34492</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <v>12000</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="J40" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F41" s="3" t="n">
+        <v>34492</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <v>8300</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="J41" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:C5 A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.98"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/internals/tests/test_cases/01.Simple_examples.xlsx
+++ b/internals/tests/test_cases/01.Simple_examples.xlsx
@@ -5,16 +5,17 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="SimpleSheet" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="LessSimpleSheet" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="SkipRows" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="TableRange" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="employees" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="countries" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="SimpleSheet" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="LessSimpleSheet" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="SkipRows" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="TableRange" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="employees" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="countries" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="DateTime" sheetId="8" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="245">
   <si>
     <t xml:space="preserve">Col1</t>
   </si>
@@ -752,18 +753,28 @@
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NumKey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DateTime</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="166" formatCode="d\-mmm\-yy"/>
     <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -840,7 +851,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -873,6 +884,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -885,6 +900,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -893,7 +1014,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:C5 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C2:C14 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -964,7 +1085,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="A5:C5 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="C2:C14 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1060,8 +1181,8 @@
   </sheetPr>
   <dimension ref="A5:C18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="C2:C14 A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1239,7 +1360,7 @@
   <dimension ref="C4:F8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="1" sqref="A5:C5 E9"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="1" sqref="C2:C14 E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1333,7 +1454,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="A5:C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C2:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1401,7 +1522,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:C5 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C2:C14 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2716,7 +2837,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:C5 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C2:C14 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3021,4 +3142,185 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.82"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="n">
+        <v>45150</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="n">
+        <v>45269.5263888889</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8" t="n">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8" t="n">
+        <v>45272</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8" t="n">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8" t="n">
+        <v>45274</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>45275</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>45276</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>45277</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8" t="n">
+        <v>45278</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>45279</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v>45280</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>